--- a/src/Pickles/MIL_pickles/Output/AN160_TestScript_Web_Analysis_System_FR_NFR.xlsx
+++ b/src/Pickles/MIL_pickles/Output/AN160_TestScript_Web_Analysis_System_FR_NFR.xlsx
@@ -573,7 +573,7 @@
     <x:t>ROIConsistentSize</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR003-4, @UR003-1</x:t>
+    <x:t>@FR003-4, @UR003-1, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>2 bitewing images of different resolution</x:t>
